--- a/Documentacion/Product Backlog/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog/Product Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\UTP\programacion\ciclo4_Desarrollo_Web\Proyecto\Documentacion\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3057C355-F141-40D7-B0E3-FBD9AE3980EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94BEC6B-5016-4D23-85CE-5EAB974C825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -6692,7 +6692,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>22</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>45</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" s="25">
         <v>1</v>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>

--- a/Documentacion/Product Backlog/Product Backlog.xlsx
+++ b/Documentacion/Product Backlog/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\UTP\programacion\ciclo4_Desarrollo_Web\Proyecto\Documentacion\Product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Desktop\UTP\programacion\ciclo4_Desarrollo_Web\Proyecto_Ciclo4\Documentacion\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94BEC6B-5016-4D23-85CE-5EAB974C825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F35860-243C-4C09-98B7-577AC0221E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
   <definedNames>
     <definedName name="DoneDays">#REF!</definedName>
     <definedName name="ImplementationDays">#REF!</definedName>
-    <definedName name="ProductBacklog">'Product Backlog'!$A$2:$H$131</definedName>
-    <definedName name="Sprint">'Product Backlog'!$E$3:$E$131</definedName>
+    <definedName name="ProductBacklog">'Product Backlog'!$A$2:$H$128</definedName>
+    <definedName name="Sprint">'Product Backlog'!$E$3:$E$128</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
-    <definedName name="Status">'Product Backlog'!$C$3:$C$131</definedName>
-    <definedName name="StoryName">'Product Backlog'!$B$3:$B$131</definedName>
+    <definedName name="Status">'Product Backlog'!$C$3:$C$128</definedName>
+    <definedName name="StoryName">'Product Backlog'!$B$3:$B$128</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
     <definedName name="TaskStoryID">#REF!</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -322,16 +322,10 @@
     <t>H008</t>
   </si>
   <si>
-    <t>H009</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
     <t>Ver perfil de usuario</t>
-  </si>
-  <si>
-    <t>Confirmar visto de mascota</t>
   </si>
   <si>
     <t>Actualizar perfil de usuario</t>
@@ -340,16 +334,7 @@
     <t>Actualizar publicacion</t>
   </si>
   <si>
-    <t>Listar Mascotas</t>
-  </si>
-  <si>
     <t>Eliminar publicacion</t>
-  </si>
-  <si>
-    <t>H011</t>
-  </si>
-  <si>
-    <t>H010</t>
   </si>
   <si>
     <t>Desarrollar Product Backlook</t>
@@ -365,6 +350,21 @@
 Front: Html, CSS, JavaScript, React
 Back: Java, Express, NodeJS.
 BD: MongoDB</t>
+  </si>
+  <si>
+    <t>Construccion de la interfaz de registro</t>
+  </si>
+  <si>
+    <t>Construccion de la interfaz del login</t>
+  </si>
+  <si>
+    <t>Construccion interfaz profile</t>
+  </si>
+  <si>
+    <t>Construccion interfaz publicar mascota</t>
+  </si>
+  <si>
+    <t>Construccion home ver mascotas</t>
   </si>
 </sst>
 </file>
@@ -937,9 +937,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1013,11 +1010,366 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="83">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF666699"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1380,166 +1732,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF99"/>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2328,198 +2520,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF666699"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2534,58 +2534,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F899EF04-071F-4438-9F03-C42B061D8F9E}" name="Tabla1" displayName="Tabla1" ref="A2:J10" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F899EF04-071F-4438-9F03-C42B061D8F9E}" name="Tabla1" displayName="Tabla1" ref="A2:J10" totalsRowShown="0" headerRowDxfId="82" headerRowBorderDxfId="81" tableBorderDxfId="80" totalsRowBorderDxfId="79">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{66CC9B29-972E-440A-912D-BD4A014746AB}" name="Incr." dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{8DB82F78-68F3-42A2-850E-63D287D60F0F}" name="Start" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{F968D6EE-A810-4E1A-B390-2EB3FDF1FEBC}" name="Days" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{AAF044F0-1EF6-4F39-B0EC-7E4FF5284F1E}" name="End" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{43FD3FBC-D2AD-4693-A6D3-2D3C3CEA7764}" name="Estimated Size" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{845D7AAE-192D-4ACB-98F1-13E2AB396319}" name="Real Size" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{3A55337D-C59A-4152-AB89-7F958089BEB6}" name="Status" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{66CC9B29-972E-440A-912D-BD4A014746AB}" name="Incr." dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{8DB82F78-68F3-42A2-850E-63D287D60F0F}" name="Start" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{F968D6EE-A810-4E1A-B390-2EB3FDF1FEBC}" name="Days" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{AAF044F0-1EF6-4F39-B0EC-7E4FF5284F1E}" name="End" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{43FD3FBC-D2AD-4693-A6D3-2D3C3CEA7764}" name="Estimated Size" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{845D7AAE-192D-4ACB-98F1-13E2AB396319}" name="Real Size" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{3A55337D-C59A-4152-AB89-7F958089BEB6}" name="Status" dataDxfId="72"/>
     <tableColumn id="8" xr3:uid="{38918B64-CCE0-4636-A5E4-263FE5F24E44}" name="Release Date"/>
-    <tableColumn id="9" xr3:uid="{60143B17-7058-4AA2-BE5E-4B4A6B0F3F79}" name="Goal" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{08E89F60-45A7-4FE5-84CF-07185CF17579}" name="% Esfuerzo vs Estimación" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{60143B17-7058-4AA2-BE5E-4B4A6B0F3F79}" name="Goal" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{08E89F60-45A7-4FE5-84CF-07185CF17579}" name="% Esfuerzo vs Estimación" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A13:K27" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6B9DA90-D87F-4F67-9EB9-B6BDCC070AB7}" name="Tabla2" displayName="Tabla2" ref="A13:K27" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="Start" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{3F7F6DD2-6EA2-4440-BD0B-88E2A12AF313}" name="Sprint" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{62768372-7E11-44D1-A207-F692349A3997}" name="Start" dataDxfId="65">
       <calculatedColumnFormula>IF(AND(B13&lt;&gt;"",C13&lt;&gt;"",C14&lt;&gt;""),B13+C13,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F25C110E-5E39-4470-8BC8-391189A23F6A}" name="Days" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="End" dataDxfId="39">
+    <tableColumn id="3" xr3:uid="{F25C110E-5E39-4470-8BC8-391189A23F6A}" name="Days" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{B5697784-C933-4A45-8BA8-617CDCABE74D}" name="End" dataDxfId="63">
       <calculatedColumnFormula>IF(AND(B14&lt;&gt;"",C14&lt;&gt;""),B14+C14-1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="Estimated Size" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="Real Size" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="Status" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{35D9BAA4-D3E2-4602-BFEC-3D9FAF91D9FB}" name="Release Date" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="Goal" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Increment" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{5518327B-86C2-485C-AF9A-553A341AB62F}" name="Estimated Size" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{8EE1AD7A-512C-42AD-9C83-F3DE570521F3}" name="Real Size" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{879F25EC-AE5A-403A-BB1E-715A98E973E5}" name="Status" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{35D9BAA4-D3E2-4602-BFEC-3D9FAF91D9FB}" name="Release Date" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{25759FDC-EAD4-41CE-B98D-B6CA5005C897}" name="Goal" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{767130C5-3778-4D2D-B165-AAC8557C9C26}" name="Increment" dataDxfId="57"/>
+    <tableColumn id="11" xr3:uid="{BB50C29E-17AE-4847-B617-C1464CB872F4}" name="% Error estimación" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I26" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55EDAA51-64A0-4C3C-BB05-C8B91F0B95A2}" name="Tabla3" displayName="Tabla3" ref="A2:I23" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="Story ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name="Story name" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Status" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="Size" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="Sprint" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="Story Type" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="Comments" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{44E148DE-5F04-4CEE-9AAC-6230A237917E}" name="Additional Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5C9319BF-6D02-43C9-BCA9-5EDBE9878A57}" name="Story ID" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{4C99E7E9-CEA2-43DA-87BD-F48F11ACCC65}" name="Story name" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{0A2A499E-9D5E-466D-A989-7A59E43BB357}" name="Status" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{5469DBC9-3DA2-4F4B-8710-F10B84BF1829}" name="Size" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{5305EA1B-B894-4B83-B24C-75E39016D04C}" name="Sprint" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{04E09A1B-DCFB-4289-8952-40AB55E5A7FA}" name="Priority" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{81D2D2DA-2F15-4682-AF3F-DDC36F5414A0}" name="Story Type" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{7448AE9C-D97B-4E61-83F8-FFB1973FA36F}" name="Comments" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{44E148DE-5F04-4CEE-9AAC-6230A237917E}" name="Additional Comments" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2812,18 +2812,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
     </row>
     <row r="2" spans="1:26" s="72" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
@@ -3084,19 +3084,19 @@
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="67" t="s">
@@ -3598,14 +3598,14 @@
       <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="75">
-        <f>SUMIF('Product Backlog'!E$3:E$85,"",'Product Backlog'!D$3:D$85)-SUMIF('Product Backlog'!C$3:C$85,"Removed",'Product Backlog'!D$3:D$85)</f>
+        <f>SUMIF('Product Backlog'!E$3:E$82,"",'Product Backlog'!D$3:D$82)-SUMIF('Product Backlog'!C$3:C$82,"Removed",'Product Backlog'!D$3:D$82)</f>
         <v>0</v>
       </c>
       <c r="F30" s="75"/>
@@ -3614,12 +3614,12 @@
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
       <c r="E31" s="75">
         <f>SUM(E14:E29)</f>
         <v>36.300000000000004</v>
@@ -6551,122 +6551,122 @@
     <mergeCell ref="A30:D30"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I8 E4:F8 E30:F31 A3:D8 F5:I5">
-    <cfRule type="expression" dxfId="82" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="13" stopIfTrue="1">
       <formula>$G2="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I8 E4:F8 E30:F31 A3:D8 F5:I5">
-    <cfRule type="expression" dxfId="81" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="14" stopIfTrue="1">
       <formula>$G2="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 G14:G23 G29">
-    <cfRule type="expression" dxfId="80" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 H14:I16 H23:I23 I17:I21 G14:G23 H15:H22 G29:I29">
-    <cfRule type="expression" dxfId="79" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G8 G14:G23 G29">
-    <cfRule type="cellIs" dxfId="78" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 F3:F7 H3:H7 H14:I16 H23:I23 H15:H22 B14:F23 H29:I29 A29:F29">
-    <cfRule type="expression" dxfId="77" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4 F3:F7 H3:H7 B14:F23 A29:F29">
-    <cfRule type="expression" dxfId="76" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="75" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="20" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="74" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="73" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="22" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B23">
-    <cfRule type="expression" dxfId="72" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="23" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D23">
-    <cfRule type="expression" dxfId="71" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="24" stopIfTrue="1">
       <formula>$G14="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D23">
-    <cfRule type="expression" dxfId="70" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="expression" dxfId="69" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
       <formula>OR($G17="Planned",$G17="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:J10">
-    <cfRule type="expression" dxfId="68" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
       <formula>$G9="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:J10">
-    <cfRule type="expression" dxfId="67" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
       <formula>$G9="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:J9">
-    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>$G8="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:J9">
-    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>$G8="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:J11">
-    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
       <formula>$G10="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:J11">
-    <cfRule type="expression" dxfId="63" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="8" stopIfTrue="1">
       <formula>$G10="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A23">
-    <cfRule type="expression" dxfId="62" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="5" stopIfTrue="1">
       <formula>OR($G14="Planned",$G14="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:K28">
-    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>OR($G24="Planned",$G24="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A23">
-    <cfRule type="expression" dxfId="60" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>$G14="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:K28">
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>$G24="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6692,7 +6692,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6709,17 +6709,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
@@ -6739,31 +6739,31 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="83" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="24"/>
@@ -6788,8 +6788,8 @@
       <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="98" t="s">
-        <v>72</v>
+      <c r="B3" s="97" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>33</v>
@@ -6804,8 +6804,8 @@
       <c r="G3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="95" t="s">
-        <v>73</v>
+      <c r="H3" s="94" t="s">
+        <v>68</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="24"/>
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>33</v>
@@ -6846,7 +6846,7 @@
       <c r="G4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="94" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="29"/>
@@ -6872,7 +6872,7 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="96" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -6888,8 +6888,8 @@
       <c r="G5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="95" t="s">
-        <v>75</v>
+      <c r="H5" s="94" t="s">
+        <v>70</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="24"/>
@@ -6914,7 +6914,7 @@
       <c r="A6" s="25">
         <v>1</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -6930,7 +6930,7 @@
       <c r="G6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="94" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="29"/>
@@ -6954,13 +6954,13 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
-      <c r="B7" s="97"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="95"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="29"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24"/>
@@ -6988,7 +6988,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="25">
@@ -7000,7 +7000,7 @@
       <c r="G8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="94" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="29"/>
@@ -7042,7 +7042,7 @@
       <c r="G9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="94" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="29"/>
@@ -7072,7 +7072,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="96"/>
+      <c r="H10" s="95"/>
       <c r="I10" s="29"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -7092,33 +7092,33 @@
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
     </row>
-    <row r="11" spans="1:26" s="93" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
+    <row r="11" spans="1:26" s="92" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
@@ -7128,7 +7128,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="25">
@@ -7138,10 +7138,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
+      <c r="H12" s="103" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="79"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -7168,7 +7170,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="25">
@@ -7178,10 +7180,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
+      <c r="H13" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="79"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -7205,10 +7209,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="25">
@@ -7218,10 +7222,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="80"/>
+      <c r="H14" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="79"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
@@ -7245,23 +7251,25 @@
         <v>56</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
+      <c r="H15" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="79"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -7285,10 +7293,10 @@
         <v>57</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="25">
@@ -7298,10 +7306,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="80"/>
+      <c r="H16" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="79"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
@@ -7321,27 +7331,21 @@
       <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>60</v>
+      <c r="B17" s="93" t="s">
+        <v>64</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>40</v>
+      <c r="C17" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="27"/>
-      <c r="E17" s="25">
-        <v>4</v>
-      </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
@@ -7361,21 +7365,21 @@
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="93" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="80"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
@@ -7395,21 +7399,21 @@
       <c r="Z18" s="33"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="93" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="80"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="79"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
@@ -7429,21 +7433,15 @@
       <c r="Z19" s="33"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>38</v>
-      </c>
+      <c r="A20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="27"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
@@ -7463,21 +7461,15 @@
       <c r="Z20" s="33"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="94" t="s">
-        <v>38</v>
-      </c>
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="27"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="80"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
@@ -7497,21 +7489,15 @@
       <c r="Z21" s="33"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>38</v>
-      </c>
+      <c r="A22" s="31"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="27"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="80"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
@@ -7536,10 +7522,10 @@
       <c r="C23" s="32"/>
       <c r="D23" s="27"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="80"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
@@ -7559,15 +7545,15 @@
       <c r="Z23" s="33"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="80"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
@@ -7587,15 +7573,15 @@
       <c r="Z24" s="33"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
@@ -7615,15 +7601,17 @@
       <c r="Z25" s="33"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
@@ -7649,9 +7637,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="G27" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
@@ -7677,9 +7667,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="G28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="33"/>
       <c r="K28" s="35"/>
       <c r="L28" s="33"/>
@@ -7705,11 +7697,9 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
@@ -7735,11 +7725,9 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="33"/>
@@ -7765,11 +7753,9 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
@@ -7873,14 +7859,14 @@
       <c r="Z34" s="33"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="33"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
@@ -7901,14 +7887,14 @@
       <c r="Z35" s="33"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="33"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -7929,14 +7915,14 @@
       <c r="Z36" s="33"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="33"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
@@ -8125,15 +8111,15 @@
       <c r="Z43" s="33"/>
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="33"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
@@ -8153,15 +8139,15 @@
       <c r="Z44" s="33"/>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="33"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
@@ -8181,15 +8167,15 @@
       <c r="Z45" s="33"/>
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="33"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
@@ -8209,14 +8195,14 @@
       <c r="Z46" s="33"/>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="44"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
@@ -8265,14 +8251,14 @@
       <c r="Z48" s="24"/>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="22"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="44"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
@@ -34613,15 +34599,6 @@
       <c r="Z989" s="24"/>
     </row>
     <row r="990" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="22"/>
-      <c r="B990" s="21"/>
-      <c r="C990" s="22"/>
-      <c r="D990" s="22"/>
-      <c r="E990" s="22"/>
-      <c r="F990" s="22"/>
-      <c r="G990" s="23"/>
-      <c r="H990" s="21"/>
-      <c r="I990" s="24"/>
       <c r="J990" s="24"/>
       <c r="K990" s="24"/>
       <c r="L990" s="24"/>
@@ -34641,15 +34618,6 @@
       <c r="Z990" s="24"/>
     </row>
     <row r="991" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A991" s="22"/>
-      <c r="B991" s="21"/>
-      <c r="C991" s="22"/>
-      <c r="D991" s="22"/>
-      <c r="E991" s="22"/>
-      <c r="F991" s="22"/>
-      <c r="G991" s="23"/>
-      <c r="H991" s="21"/>
-      <c r="I991" s="24"/>
       <c r="J991" s="24"/>
       <c r="K991" s="24"/>
       <c r="L991" s="24"/>
@@ -34669,15 +34637,6 @@
       <c r="Z991" s="24"/>
     </row>
     <row r="992" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A992" s="22"/>
-      <c r="B992" s="21"/>
-      <c r="C992" s="22"/>
-      <c r="D992" s="22"/>
-      <c r="E992" s="22"/>
-      <c r="F992" s="22"/>
-      <c r="G992" s="23"/>
-      <c r="H992" s="21"/>
-      <c r="I992" s="24"/>
       <c r="J992" s="24"/>
       <c r="K992" s="24"/>
       <c r="L992" s="24"/>
@@ -34701,108 +34660,108 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B26">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B23">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B26">
-    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="B3:B23">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 G29:H31 I29 A38:H992 H18:I25 I2:I25 A2:G26">
-    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="G26:H28 I26 A35:H989 H2:H16 H17:I22 I2:I22 A2:G23">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 G29:H31 I29 A38:H992 H18:I25 I2:I25 A2:G26">
-    <cfRule type="expression" dxfId="28" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="G26:H28 I26 A35:H989 H2:H16 H17:I22 I2:I22 A2:G23">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17 G29:H31 I29 A38:H992 H18:I25 I2:I25 A2:G26">
-    <cfRule type="expression" dxfId="27" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="G26:H28 I26 A35:H989 H2:H16 H17:I22 I2:I22 A2:G23">
+    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I25">
-    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="I3:I22">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>$C3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I25">
-    <cfRule type="expression" dxfId="25" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="I3:I22">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>$C3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I25">
-    <cfRule type="expression" dxfId="24" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="I3:I22">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>$C3="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>$C3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>$C3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>$C3="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I31">
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
-      <formula>$C30="Done"</formula>
+  <conditionalFormatting sqref="H28:I28">
+    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
+      <formula>$C27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I31">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
-      <formula>$C30="Ongoing"</formula>
+  <conditionalFormatting sqref="H28:I28">
+    <cfRule type="expression" dxfId="4" priority="16" stopIfTrue="1">
+      <formula>$C27="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I31">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
-      <formula>$C30="Removed"</formula>
+  <conditionalFormatting sqref="H28:I28">
+    <cfRule type="expression" dxfId="3" priority="17" stopIfTrue="1">
+      <formula>$C27="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30">
-    <cfRule type="expression" dxfId="14" priority="18" stopIfTrue="1">
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="expression" dxfId="2" priority="18" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30">
-    <cfRule type="expression" dxfId="13" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="expression" dxfId="1" priority="19" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30">
-    <cfRule type="expression" dxfId="12" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="H27:I27">
+    <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C38:C131 C2:C26" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C35:C128 C2:C23" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Planned,Ongoing,Done,Removed"</formula1>
     </dataValidation>
   </dataValidations>
